--- a/datafiles0129.xlsx
+++ b/datafiles0129.xlsx
@@ -191,13 +191,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0_ "/>
     <numFmt numFmtId="166" formatCode="H:MM"/>
     <numFmt numFmtId="167" formatCode="0.00_ "/>
-    <numFmt numFmtId="168" formatCode="0.00"/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -319,7 +320,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,6 +381,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -408,6 +413,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -420,7 +429,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3:R22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W5" activeCellId="0" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,15 +705,15 @@
       </c>
       <c r="K3" s="12" t="n">
         <f aca="false">K4+G3-G4</f>
-        <v>9.949</v>
+        <v>9.959</v>
       </c>
       <c r="L3" s="2" t="n">
         <f aca="false">0.25*PI()*J3*J3*K3</f>
-        <v>6689.87427198684</v>
+        <v>6696.59843951321</v>
       </c>
       <c r="M3" s="13" t="n">
         <f aca="false">I3/L3*1000</f>
-        <v>1.73994301338985</v>
+        <v>1.73819590724125</v>
       </c>
       <c r="N3" s="12" t="n">
         <f aca="false">N4</f>
@@ -716,7 +725,7 @@
       </c>
       <c r="P3" s="13" t="n">
         <f aca="false">N3/L3*1000</f>
-        <v>1.42005658309309</v>
+        <v>1.41863068030858</v>
       </c>
       <c r="Q3" s="13" t="n">
         <f aca="false">Q4</f>
@@ -734,16 +743,16 @@
         <f aca="false">N3/Q3*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U3" s="14" t="n">
+      <c r="U3" s="15" t="n">
         <f aca="false">(L3-T3)/L3</f>
-        <v>0.47405311737293</v>
+        <v>0.47458122951534</v>
       </c>
       <c r="V3" s="14" t="n">
         <f aca="false">S3/(L3-T3)</f>
-        <v>0.674790268376423</v>
+        <v>0.673362550092892</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,15 +790,15 @@
       </c>
       <c r="K4" s="12" t="n">
         <f aca="false">K5+G4-G5</f>
-        <v>9.939</v>
+        <v>9.949</v>
       </c>
       <c r="L4" s="2" t="n">
         <f aca="false">0.25*PI()*J4*J4*K4</f>
-        <v>6683.15010446047</v>
+        <v>6689.87427198684</v>
       </c>
       <c r="M4" s="13" t="n">
         <f aca="false">I4/L4*1000</f>
-        <v>1.74169363519626</v>
+        <v>1.73994301338985</v>
       </c>
       <c r="N4" s="12" t="n">
         <f aca="false">N5</f>
@@ -801,7 +810,7 @@
       </c>
       <c r="P4" s="13" t="n">
         <f aca="false">N4/L4*1000</f>
-        <v>1.42148535518595</v>
+        <v>1.42005658309309</v>
       </c>
       <c r="Q4" s="13" t="n">
         <f aca="false">Q5</f>
@@ -819,16 +828,16 @@
         <f aca="false">N4/Q4*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U4" s="14" t="n">
+      <c r="U4" s="15" t="n">
         <f aca="false">(L4-T4)/L4</f>
-        <v>0.473523942523723</v>
+        <v>0.47405311737293</v>
       </c>
       <c r="V4" s="14" t="n">
         <f aca="false">S4/(L4-T4)</f>
-        <v>0.676224053853975</v>
+        <v>0.674790268376423</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,15 +875,15 @@
       </c>
       <c r="K5" s="12" t="n">
         <f aca="false">K6+G5-G6</f>
-        <v>9.939</v>
+        <v>9.949</v>
       </c>
       <c r="L5" s="2" t="n">
         <f aca="false">0.25*PI()*J5*J5*K5</f>
-        <v>6683.15010446047</v>
+        <v>6689.87427198684</v>
       </c>
       <c r="M5" s="13" t="n">
         <f aca="false">I5/L5*1000</f>
-        <v>1.74169363519626</v>
+        <v>1.73994301338985</v>
       </c>
       <c r="N5" s="12" t="n">
         <f aca="false">N6</f>
@@ -886,7 +895,7 @@
       </c>
       <c r="P5" s="13" t="n">
         <f aca="false">N5/L5*1000</f>
-        <v>1.42148535518595</v>
+        <v>1.42005658309309</v>
       </c>
       <c r="Q5" s="13" t="n">
         <f aca="false">Q6</f>
@@ -904,13 +913,13 @@
         <f aca="false">N5/Q5*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U5" s="14" t="n">
+      <c r="U5" s="15" t="n">
         <f aca="false">(L5-T5)/L5</f>
-        <v>0.473523942523723</v>
+        <v>0.47405311737293</v>
       </c>
       <c r="V5" s="14" t="n">
         <f aca="false">S5/(L5-T5)</f>
-        <v>0.676224053853975</v>
+        <v>0.674790268376423</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>1</v>
@@ -951,15 +960,15 @@
       </c>
       <c r="K6" s="12" t="n">
         <f aca="false">K7+G6-G7</f>
-        <v>9.929</v>
+        <v>9.939</v>
       </c>
       <c r="L6" s="2" t="n">
         <f aca="false">0.25*PI()*J6*J6*K6</f>
-        <v>6676.4259369341</v>
+        <v>6683.15010446047</v>
       </c>
       <c r="M6" s="13" t="n">
         <f aca="false">I6/L6*1000</f>
-        <v>1.74344778328287</v>
+        <v>1.74169363519626</v>
       </c>
       <c r="N6" s="12" t="n">
         <f aca="false">N7</f>
@@ -971,7 +980,7 @@
       </c>
       <c r="P6" s="13" t="n">
         <f aca="false">N6/L6*1000</f>
-        <v>1.42291700525664</v>
+        <v>1.42148535518595</v>
       </c>
       <c r="Q6" s="13" t="n">
         <f aca="false">Q7</f>
@@ -989,13 +998,13 @@
         <f aca="false">N6/Q6*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U6" s="14" t="n">
+      <c r="U6" s="15" t="n">
         <f aca="false">(L6-T6)/L6</f>
-        <v>0.472993701756801</v>
+        <v>0.473523942523722</v>
       </c>
       <c r="V6" s="14" t="n">
         <f aca="false">S6/(L6-T6)</f>
-        <v>0.677663945282381</v>
+        <v>0.676224053853976</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>1</v>
@@ -1036,15 +1045,15 @@
       </c>
       <c r="K7" s="12" t="n">
         <f aca="false">K8+G7-G8</f>
-        <v>9.919</v>
+        <v>9.929</v>
       </c>
       <c r="L7" s="2" t="n">
         <f aca="false">0.25*PI()*J7*J7*K7</f>
-        <v>6669.70176940772</v>
+        <v>6676.42593693409</v>
       </c>
       <c r="M7" s="13" t="n">
         <f aca="false">I7/L7*1000</f>
-        <v>1.74520546831491</v>
+        <v>1.74344778328287</v>
       </c>
       <c r="N7" s="12" t="n">
         <f aca="false">N8</f>
@@ -1056,7 +1065,7 @@
       </c>
       <c r="P7" s="13" t="n">
         <f aca="false">N7/L7*1000</f>
-        <v>1.42435154200959</v>
+        <v>1.42291700525664</v>
       </c>
       <c r="Q7" s="13" t="n">
         <f aca="false">Q8</f>
@@ -1074,13 +1083,13 @@
         <f aca="false">N7/Q7*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U7" s="14" t="n">
+      <c r="U7" s="15" t="n">
         <f aca="false">(L7-T7)/L7</f>
-        <v>0.472462391848299</v>
+        <v>0.472993701756801</v>
       </c>
       <c r="V7" s="14" t="n">
         <f aca="false">S7/(L7-T7)</f>
-        <v>0.679109981749278</v>
+        <v>0.677663945282382</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>1</v>
@@ -1121,15 +1130,15 @@
       </c>
       <c r="K8" s="12" t="n">
         <f aca="false">K9+G8-G9</f>
-        <v>9.899</v>
+        <v>9.909</v>
       </c>
       <c r="L8" s="2" t="n">
         <f aca="false">0.25*PI()*J8*J8*K8</f>
-        <v>6656.25343435498</v>
+        <v>6662.97760188135</v>
       </c>
       <c r="M8" s="13" t="n">
         <f aca="false">I8/L8*1000</f>
-        <v>1.74873149209169</v>
+        <v>1.74696670100067</v>
       </c>
       <c r="N8" s="12" t="n">
         <f aca="false">N9</f>
@@ -1141,7 +1150,7 @@
       </c>
       <c r="P8" s="13" t="n">
         <f aca="false">N8/L8*1000</f>
-        <v>1.42722931055593</v>
+        <v>1.42578897418439</v>
       </c>
       <c r="Q8" s="13" t="n">
         <f aca="false">Q9</f>
@@ -1159,13 +1168,13 @@
         <f aca="false">N8/Q8*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U8" s="14" t="n">
+      <c r="U8" s="15" t="n">
         <f aca="false">(L8-T8)/L8</f>
-        <v>0.471396551645952</v>
+        <v>0.471930009561336</v>
       </c>
       <c r="V8" s="14" t="n">
         <f aca="false">S8/(L8-T8)</f>
-        <v>0.682020647824392</v>
+        <v>0.680562202676647</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>1</v>
@@ -1206,15 +1215,15 @@
       </c>
       <c r="K9" s="12" t="n">
         <f aca="false">K10+G9-G10</f>
-        <v>9.449</v>
+        <v>9.459</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">0.25*PI()*J9*J9*K9</f>
-        <v>6353.66589566827</v>
+        <v>6360.39006319464</v>
       </c>
       <c r="M9" s="13" t="n">
         <f aca="false">I9/L9*1000</f>
-        <v>1.83201323316918</v>
+        <v>1.83007643939271</v>
       </c>
       <c r="N9" s="12" t="n">
         <f aca="false">N10</f>
@@ -1226,7 +1235,7 @@
       </c>
       <c r="P9" s="13" t="n">
         <f aca="false">N9/L9*1000</f>
-        <v>1.49519980370337</v>
+        <v>1.49361908713322</v>
       </c>
       <c r="Q9" s="13" t="n">
         <f aca="false">Q10</f>
@@ -1244,16 +1253,16 @@
         <f aca="false">N9/Q9*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U9" s="14" t="n">
+      <c r="U9" s="15" t="n">
         <f aca="false">(L9-T9)/L9</f>
-        <v>0.446222294924678</v>
+        <v>0.446807745506214</v>
       </c>
       <c r="V9" s="14" t="n">
         <f aca="false">S9/(L9-T9)</f>
-        <v>0.75481084942801</v>
+        <v>0.753024887422872</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,15 +1300,15 @@
       </c>
       <c r="K10" s="12" t="n">
         <f aca="false">K11+G10-G11</f>
-        <v>9.429</v>
+        <v>9.439</v>
       </c>
       <c r="L10" s="2" t="n">
         <f aca="false">0.25*PI()*J10*J10*K10</f>
-        <v>6340.21756061553</v>
+        <v>6346.9417281419</v>
       </c>
       <c r="M10" s="13" t="n">
         <f aca="false">I10/L10*1000</f>
-        <v>1.83589914521324</v>
+        <v>1.83395413075703</v>
       </c>
       <c r="N10" s="12" t="n">
         <f aca="false">N11</f>
@@ -1311,7 +1320,7 @@
       </c>
       <c r="P10" s="13" t="n">
         <f aca="false">N10/L10*1000</f>
-        <v>1.4983712954919</v>
+        <v>1.49678386960411</v>
       </c>
       <c r="Q10" s="13" t="n">
         <f aca="false">Q11</f>
@@ -1329,13 +1338,13 @@
         <f aca="false">N10/Q10*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U10" s="14" t="n">
+      <c r="U10" s="15" t="n">
         <f aca="false">(L10-T10)/L10</f>
-        <v>0.445047668336333</v>
+        <v>0.445635603850331</v>
       </c>
       <c r="V10" s="14" t="n">
         <f aca="false">S10/(L10-T10)</f>
-        <v>0.758408309345992</v>
+        <v>0.756605303166407</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>1</v>
@@ -1376,15 +1385,15 @@
       </c>
       <c r="K11" s="12" t="n">
         <f aca="false">K12+G11-G12</f>
-        <v>9.429</v>
+        <v>9.439</v>
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">0.25*PI()*J11*J11*K11</f>
-        <v>6340.21756061553</v>
+        <v>6346.9417281419</v>
       </c>
       <c r="M11" s="13" t="n">
         <f aca="false">I11/L11*1000</f>
-        <v>1.83589914521324</v>
+        <v>1.83395413075703</v>
       </c>
       <c r="N11" s="12" t="n">
         <f aca="false">N12</f>
@@ -1396,7 +1405,7 @@
       </c>
       <c r="P11" s="13" t="n">
         <f aca="false">N11/L11*1000</f>
-        <v>1.4983712954919</v>
+        <v>1.49678386960411</v>
       </c>
       <c r="Q11" s="13" t="n">
         <f aca="false">Q12</f>
@@ -1414,13 +1423,13 @@
         <f aca="false">N11/Q11*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U11" s="14" t="n">
+      <c r="U11" s="15" t="n">
         <f aca="false">(L11-T11)/L11</f>
-        <v>0.445047668336333</v>
+        <v>0.445635603850331</v>
       </c>
       <c r="V11" s="14" t="n">
         <f aca="false">S11/(L11-T11)</f>
-        <v>0.758408309345992</v>
+        <v>0.756605303166407</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>1</v>
@@ -1461,15 +1470,15 @@
       </c>
       <c r="K12" s="12" t="n">
         <f aca="false">K13+G12-G13</f>
-        <v>8.949</v>
+        <v>8.959</v>
       </c>
       <c r="L12" s="2" t="n">
         <f aca="false">0.25*PI()*J12*J12*K12</f>
-        <v>6017.45751934971</v>
+        <v>6024.18168687608</v>
       </c>
       <c r="M12" s="13" t="n">
         <f aca="false">I12/L12*1000</f>
-        <v>1.93437177787637</v>
+        <v>1.93221263982762</v>
       </c>
       <c r="N12" s="12" t="n">
         <f aca="false">N13</f>
@@ -1481,7 +1490,7 @@
       </c>
       <c r="P12" s="13" t="n">
         <f aca="false">N12/L12*1000</f>
-        <v>1.57873985307779</v>
+        <v>1.5769776699624</v>
       </c>
       <c r="Q12" s="13" t="n">
         <f aca="false">Q13</f>
@@ -1499,16 +1508,16 @@
         <f aca="false">N12/Q12*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U12" s="14" t="n">
+      <c r="U12" s="15" t="n">
         <f aca="false">(L12-T12)/L12</f>
-        <v>0.415281535897115</v>
+        <v>0.415934196310222</v>
       </c>
       <c r="V12" s="14" t="n">
         <f aca="false">S12/(L12-T12)</f>
-        <v>0.856363440359369</v>
+        <v>0.854065313735985</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,15 +1555,15 @@
       </c>
       <c r="K13" s="12" t="n">
         <f aca="false">K14+G13-G14</f>
-        <v>8.939</v>
+        <v>8.949</v>
       </c>
       <c r="L13" s="2" t="n">
         <f aca="false">0.25*PI()*J13*J13*K13</f>
-        <v>6010.73335182334</v>
+        <v>6017.45751934971</v>
       </c>
       <c r="M13" s="13" t="n">
         <f aca="false">I13/L13*1000</f>
-        <v>1.93653574675194</v>
+        <v>1.93437177787637</v>
       </c>
       <c r="N13" s="12" t="n">
         <f aca="false">N14</f>
@@ -1566,7 +1575,7 @@
       </c>
       <c r="P13" s="13" t="n">
         <f aca="false">N13/L13*1000</f>
-        <v>1.5805059788783</v>
+        <v>1.57873985307779</v>
       </c>
       <c r="Q13" s="13" t="n">
         <f aca="false">Q14</f>
@@ -1584,13 +1593,13 @@
         <f aca="false">N13/Q13*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U13" s="14" t="n">
+      <c r="U13" s="15" t="n">
         <f aca="false">(L13-T13)/L13</f>
-        <v>0.414627415230258</v>
+        <v>0.415281535897114</v>
       </c>
       <c r="V13" s="14" t="n">
         <f aca="false">S13/(L13-T13)</f>
-        <v>0.85867396799105</v>
+        <v>0.85636344035937</v>
       </c>
       <c r="W13" s="1" t="n">
         <v>1</v>
@@ -1631,15 +1640,15 @@
       </c>
       <c r="K14" s="12" t="n">
         <f aca="false">K15+G14-G15</f>
-        <v>8.929</v>
+        <v>8.939</v>
       </c>
       <c r="L14" s="2" t="n">
         <f aca="false">0.25*PI()*J14*J14*K14</f>
-        <v>6004.00918429697</v>
+        <v>6010.73335182334</v>
       </c>
       <c r="M14" s="13" t="n">
         <f aca="false">I14/L14*1000</f>
-        <v>1.93870456268514</v>
+        <v>1.93653574675194</v>
       </c>
       <c r="N14" s="12" t="n">
         <f aca="false">N15</f>
@@ -1651,7 +1660,7 @@
       </c>
       <c r="P14" s="13" t="n">
         <f aca="false">N14/L14*1000</f>
-        <v>1.58227606061072</v>
+        <v>1.5805059788783</v>
       </c>
       <c r="Q14" s="13" t="n">
         <f aca="false">Q15</f>
@@ -1669,13 +1678,13 @@
         <f aca="false">N14/Q14*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U14" s="14" t="n">
+      <c r="U14" s="15" t="n">
         <f aca="false">(L14-T14)/L14</f>
-        <v>0.413971829403436</v>
+        <v>0.414627415230258</v>
       </c>
       <c r="V14" s="14" t="n">
         <f aca="false">S14/(L14-T14)</f>
-        <v>0.860996997278909</v>
+        <v>0.85867396799105</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>1</v>
@@ -1716,15 +1725,15 @@
       </c>
       <c r="K15" s="12" t="n">
         <f aca="false">K16+G15-G16</f>
-        <v>8.929</v>
+        <v>8.939</v>
       </c>
       <c r="L15" s="2" t="n">
         <f aca="false">0.25*PI()*J15*J15*K15</f>
-        <v>6004.00918429697</v>
+        <v>6010.73335182334</v>
       </c>
       <c r="M15" s="13" t="n">
         <f aca="false">I15/L15*1000</f>
-        <v>1.93870456268514</v>
+        <v>1.93653574675194</v>
       </c>
       <c r="N15" s="12" t="n">
         <f aca="false">N16</f>
@@ -1736,7 +1745,7 @@
       </c>
       <c r="P15" s="13" t="n">
         <f aca="false">N15/L15*1000</f>
-        <v>1.58227606061072</v>
+        <v>1.5805059788783</v>
       </c>
       <c r="Q15" s="13" t="n">
         <f aca="false">Q16</f>
@@ -1754,13 +1763,13 @@
         <f aca="false">N15/Q15*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U15" s="14" t="n">
+      <c r="U15" s="15" t="n">
         <f aca="false">(L15-T15)/L15</f>
-        <v>0.413971829403436</v>
+        <v>0.414627415230258</v>
       </c>
       <c r="V15" s="14" t="n">
         <f aca="false">S15/(L15-T15)</f>
-        <v>0.860996997278909</v>
+        <v>0.85867396799105</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>1</v>
@@ -1801,15 +1810,15 @@
       </c>
       <c r="K16" s="12" t="n">
         <f aca="false">K17+G16-G17</f>
-        <v>8.929</v>
+        <v>8.939</v>
       </c>
       <c r="L16" s="2" t="n">
         <f aca="false">0.25*PI()*J16*J16*K16</f>
-        <v>6004.00918429697</v>
+        <v>6010.73335182334</v>
       </c>
       <c r="M16" s="13" t="n">
         <f aca="false">I16/L16*1000</f>
-        <v>1.93870456268514</v>
+        <v>1.93653574675194</v>
       </c>
       <c r="N16" s="12" t="n">
         <f aca="false">N17</f>
@@ -1821,7 +1830,7 @@
       </c>
       <c r="P16" s="13" t="n">
         <f aca="false">N16/L16*1000</f>
-        <v>1.58227606061072</v>
+        <v>1.5805059788783</v>
       </c>
       <c r="Q16" s="13" t="n">
         <f aca="false">Q17</f>
@@ -1839,13 +1848,13 @@
         <f aca="false">N16/Q16*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U16" s="14" t="n">
+      <c r="U16" s="15" t="n">
         <f aca="false">(L16-T16)/L16</f>
-        <v>0.413971829403436</v>
+        <v>0.414627415230258</v>
       </c>
       <c r="V16" s="14" t="n">
         <f aca="false">S16/(L16-T16)</f>
-        <v>0.860996997278909</v>
+        <v>0.85867396799105</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>1</v>
@@ -1886,15 +1895,15 @@
       </c>
       <c r="K17" s="12" t="n">
         <f aca="false">K18+G17-G18</f>
-        <v>8.429</v>
+        <v>8.439</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">0.25*PI()*J17*J17*K17</f>
-        <v>5667.8008079784</v>
+        <v>5674.52497550477</v>
       </c>
       <c r="M17" s="13" t="n">
         <f aca="false">I17/L17*1000</f>
-        <v>2.05370661290967</v>
+        <v>2.05127302289556</v>
       </c>
       <c r="N17" s="12" t="n">
         <f aca="false">N18</f>
@@ -1906,7 +1915,7 @@
       </c>
       <c r="P17" s="13" t="n">
         <f aca="false">N17/L17*1000</f>
-        <v>1.67613512222009</v>
+        <v>1.67414894480307</v>
       </c>
       <c r="Q17" s="13" t="n">
         <f aca="false">Q18</f>
@@ -1924,16 +1933,16 @@
         <f aca="false">N17/Q17*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U17" s="14" t="n">
+      <c r="U17" s="15" t="n">
         <f aca="false">(L17-T17)/L17</f>
-        <v>0.379209213992559</v>
+        <v>0.37994483525812</v>
       </c>
       <c r="V17" s="14" t="n">
         <f aca="false">S17/(L17-T17)</f>
-        <v>0.995681214373096</v>
+        <v>0.99257587706457</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,15 +1980,15 @@
       </c>
       <c r="K18" s="12" t="n">
         <f aca="false">K19+G18-G19</f>
-        <v>8.409</v>
+        <v>8.419</v>
       </c>
       <c r="L18" s="2" t="n">
         <f aca="false">0.25*PI()*J18*J18*K18</f>
-        <v>5654.35247292565</v>
+        <v>5661.07664045202</v>
       </c>
       <c r="M18" s="13" t="n">
         <f aca="false">I18/L18*1000</f>
-        <v>2.05859115711923</v>
+        <v>2.05614598410923</v>
       </c>
       <c r="N18" s="12" t="n">
         <f aca="false">N19</f>
@@ -1991,7 +2000,7 @@
       </c>
       <c r="P18" s="13" t="n">
         <f aca="false">N18/L18*1000</f>
-        <v>1.68012164885161</v>
+        <v>1.67812601795856</v>
       </c>
       <c r="Q18" s="13" t="n">
         <f aca="false">Q19</f>
@@ -2009,13 +2018,13 @@
         <f aca="false">N18/Q18*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U18" s="14" t="n">
+      <c r="U18" s="15" t="n">
         <f aca="false">(L18-T18)/L18</f>
-        <v>0.377732722647554</v>
+        <v>0.378471845200532</v>
       </c>
       <c r="V18" s="14" t="n">
         <f aca="false">S18/(L18-T18)</f>
-        <v>1.00195054750594</v>
+        <v>0.998806043155928</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>1</v>
@@ -2056,15 +2065,15 @@
       </c>
       <c r="K19" s="12" t="n">
         <f aca="false">K20+G19-G20</f>
-        <v>8.409</v>
+        <v>8.419</v>
       </c>
       <c r="L19" s="2" t="n">
         <f aca="false">0.25*PI()*J19*J19*K19</f>
-        <v>5654.35247292565</v>
+        <v>5661.07664045202</v>
       </c>
       <c r="M19" s="13" t="n">
         <f aca="false">I19/L19*1000</f>
-        <v>2.05859115711923</v>
+        <v>2.05614598410923</v>
       </c>
       <c r="N19" s="12" t="n">
         <f aca="false">N20</f>
@@ -2076,7 +2085,7 @@
       </c>
       <c r="P19" s="13" t="n">
         <f aca="false">N19/L19*1000</f>
-        <v>1.68012164885161</v>
+        <v>1.67812601795856</v>
       </c>
       <c r="Q19" s="13" t="n">
         <f aca="false">Q20</f>
@@ -2094,13 +2103,13 @@
         <f aca="false">N19/Q19*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U19" s="14" t="n">
+      <c r="U19" s="15" t="n">
         <f aca="false">(L19-T19)/L19</f>
-        <v>0.377732722647554</v>
+        <v>0.378471845200532</v>
       </c>
       <c r="V19" s="14" t="n">
         <f aca="false">S19/(L19-T19)</f>
-        <v>1.00195054750594</v>
+        <v>0.998806043155928</v>
       </c>
       <c r="W19" s="1" t="n">
         <v>1</v>
@@ -2141,15 +2150,15 @@
       </c>
       <c r="K20" s="12" t="n">
         <f aca="false">K21+G20-G21</f>
-        <v>8.409</v>
+        <v>8.419</v>
       </c>
       <c r="L20" s="2" t="n">
         <f aca="false">0.25*PI()*J20*J20*K20</f>
-        <v>5654.35247292565</v>
+        <v>5661.07664045202</v>
       </c>
       <c r="M20" s="13" t="n">
         <f aca="false">I20/L20*1000</f>
-        <v>2.05859115711923</v>
+        <v>2.05614598410923</v>
       </c>
       <c r="N20" s="12" t="n">
         <f aca="false">N21</f>
@@ -2161,7 +2170,7 @@
       </c>
       <c r="P20" s="13" t="n">
         <f aca="false">N20/L20*1000</f>
-        <v>1.68012164885161</v>
+        <v>1.67812601795856</v>
       </c>
       <c r="Q20" s="13" t="n">
         <f aca="false">Q21</f>
@@ -2179,13 +2188,13 @@
         <f aca="false">N20/Q20*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U20" s="14" t="n">
+      <c r="U20" s="15" t="n">
         <f aca="false">(L20-T20)/L20</f>
-        <v>0.377732722647554</v>
+        <v>0.378471845200532</v>
       </c>
       <c r="V20" s="14" t="n">
         <f aca="false">S20/(L20-T20)</f>
-        <v>1.00195054750594</v>
+        <v>0.998806043155928</v>
       </c>
       <c r="W20" s="1" t="n">
         <v>1</v>
@@ -2226,15 +2235,15 @@
       </c>
       <c r="K21" s="12" t="n">
         <f aca="false">K22+G21-G22</f>
-        <v>8.409</v>
+        <v>8.419</v>
       </c>
       <c r="L21" s="2" t="n">
         <f aca="false">0.25*PI()*J21*J21*K21</f>
-        <v>5654.35247292565</v>
+        <v>5661.07664045202</v>
       </c>
       <c r="M21" s="13" t="n">
         <f aca="false">I21/L21*1000</f>
-        <v>2.05859115711923</v>
+        <v>2.05614598410923</v>
       </c>
       <c r="N21" s="12" t="n">
         <f aca="false">N22</f>
@@ -2246,7 +2255,7 @@
       </c>
       <c r="P21" s="13" t="n">
         <f aca="false">N21/L21*1000</f>
-        <v>1.68012164885161</v>
+        <v>1.67812601795856</v>
       </c>
       <c r="Q21" s="13" t="n">
         <f aca="false">Q22</f>
@@ -2264,13 +2273,13 @@
         <f aca="false">N21/Q21*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U21" s="14" t="n">
+      <c r="U21" s="15" t="n">
         <f aca="false">(L21-T21)/L21</f>
-        <v>0.377732722647554</v>
+        <v>0.378471845200532</v>
       </c>
       <c r="V21" s="14" t="n">
         <f aca="false">S21/(L21-T21)</f>
-        <v>1.00195054750594</v>
+        <v>0.998806043155928</v>
       </c>
       <c r="W21" s="1" t="n">
         <v>1</v>
@@ -2280,7 +2289,7 @@
       <c r="A22" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="9" t="n">
@@ -2292,7 +2301,7 @@
       <c r="E22" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="F22" s="16" t="n">
+      <c r="F22" s="17" t="n">
         <v>0.988888888888889</v>
       </c>
       <c r="G22" s="9" t="n">
@@ -2300,29 +2309,29 @@
       </c>
       <c r="H22" s="9" t="n">
         <f aca="false">G23-G22</f>
-        <v>0.380000000000001</v>
-      </c>
-      <c r="I22" s="17" t="n">
+        <v>0.370000000000001</v>
+      </c>
+      <c r="I22" s="18" t="n">
         <f aca="false">I23</f>
         <v>11.64</v>
       </c>
-      <c r="J22" s="17" t="n">
+      <c r="J22" s="18" t="n">
         <f aca="false">J23</f>
         <v>29.26</v>
       </c>
-      <c r="K22" s="17" t="n">
+      <c r="K22" s="18" t="n">
         <f aca="false">K23-H22</f>
-        <v>8.409</v>
-      </c>
-      <c r="L22" s="18" t="n">
+        <v>8.419</v>
+      </c>
+      <c r="L22" s="19" t="n">
         <f aca="false">0.25*PI()*J22*J22*K22</f>
-        <v>5654.35247292565</v>
-      </c>
-      <c r="M22" s="19" t="n">
+        <v>5661.07664045202</v>
+      </c>
+      <c r="M22" s="20" t="n">
         <f aca="false">I22/L22*1000</f>
-        <v>2.05859115711923</v>
-      </c>
-      <c r="N22" s="17" t="n">
+        <v>2.05614598410923</v>
+      </c>
+      <c r="N22" s="18" t="n">
         <f aca="false">N23</f>
         <v>9.5</v>
       </c>
@@ -2330,15 +2339,15 @@
         <f aca="false">I22-N22</f>
         <v>2.14</v>
       </c>
-      <c r="P22" s="19" t="n">
+      <c r="P22" s="20" t="n">
         <f aca="false">N22/L22*1000</f>
-        <v>1.68012164885161</v>
-      </c>
-      <c r="Q22" s="20" t="n">
+        <v>1.67812601795856</v>
+      </c>
+      <c r="Q22" s="21" t="n">
         <f aca="false">Q23</f>
         <v>2.7</v>
       </c>
-      <c r="R22" s="21" t="n">
+      <c r="R22" s="22" t="n">
         <f aca="false">O22/N22</f>
         <v>0.225263157894737</v>
       </c>
@@ -2346,17 +2355,17 @@
         <f aca="false">O22*1000</f>
         <v>2140</v>
       </c>
-      <c r="T22" s="18" t="n">
+      <c r="T22" s="19" t="n">
         <f aca="false">N22/Q22*1000</f>
         <v>3518.51851851852</v>
       </c>
-      <c r="U22" s="21" t="n">
+      <c r="U22" s="23" t="n">
         <f aca="false">(L22-T22)/L22</f>
-        <v>0.377732722647554</v>
-      </c>
-      <c r="V22" s="21" t="n">
+        <v>0.378471845200532</v>
+      </c>
+      <c r="V22" s="22" t="n">
         <f aca="false">S22/(L22-T22)</f>
-        <v>1.00195054750594</v>
+        <v>0.998806043155928</v>
       </c>
       <c r="W22" s="9" t="n">
         <v>1</v>
@@ -2368,29 +2377,29 @@
         <v>54</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>9.24</v>
-      </c>
-      <c r="I23" s="22" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="I23" s="24" t="n">
         <v>11.64</v>
       </c>
-      <c r="J23" s="22" t="n">
+      <c r="J23" s="24" t="n">
         <v>29.26</v>
       </c>
-      <c r="K23" s="23" t="n">
+      <c r="K23" s="25" t="n">
         <f aca="false">8.789</f>
         <v>8.789</v>
       </c>
       <c r="M23" s="13"/>
-      <c r="N23" s="22" t="n">
+      <c r="N23" s="24" t="n">
         <v>9.5</v>
       </c>
       <c r="P23" s="13"/>
-      <c r="Q23" s="24" t="n">
+      <c r="Q23" s="26" t="n">
         <v>2.7</v>
       </c>
-      <c r="R23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
+      <c r="R23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/datafiles0129.xlsx
+++ b/datafiles0129.xlsx
@@ -512,8 +512,8 @@
   </sheetPr>
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W5" activeCellId="0" sqref="W5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W4" activeCellId="0" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -837,7 +837,7 @@
         <v>0.674790268376423</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2282,7 +2282,7 @@
         <v>0.998806043155928</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
